--- a/data/trans_orig/P21D2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D2_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>49257</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38157</v>
+        <v>37364</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62357</v>
+        <v>64011</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3192538472615359</v>
+        <v>0.319253847261536</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2473132339614567</v>
+        <v>0.2421737677671914</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.404161503481252</v>
+        <v>0.4148806588277649</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>51</v>
@@ -762,19 +762,19 @@
         <v>26652</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20412</v>
+        <v>20436</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34074</v>
+        <v>34359</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.192142598273141</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1471590279563613</v>
+        <v>0.1473319777926507</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2456524784763417</v>
+        <v>0.2477060803107162</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>101</v>
@@ -783,19 +783,19 @@
         <v>75909</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>63001</v>
+        <v>62660</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>91579</v>
+        <v>92873</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2590774291531601</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2150218619456457</v>
+        <v>0.2138606350334157</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.31256088130323</v>
+        <v>0.316976797019672</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>86383</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70989</v>
+        <v>73227</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>98445</v>
+        <v>98685</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5598821718777821</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4601131840426219</v>
+        <v>0.4746136108821244</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6380667637745213</v>
+        <v>0.6396176745069028</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>162</v>
@@ -833,19 +833,19 @@
         <v>96103</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>86692</v>
+        <v>85699</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>104787</v>
+        <v>105285</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.692842543586347</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6249883519481323</v>
+        <v>0.617834898271057</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7554476583011246</v>
+        <v>0.7590350429288106</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>249</v>
@@ -854,19 +854,19 @@
         <v>182486</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>164898</v>
+        <v>166733</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>198015</v>
+        <v>198038</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6228276545432081</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5627999301544331</v>
+        <v>0.5690630678751915</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6758284045398631</v>
+        <v>0.6759058031078788</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>5337</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>977</v>
+        <v>1493</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15528</v>
+        <v>15606</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03459271718028302</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006329810717807126</v>
+        <v>0.009676652371959972</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1006429067048358</v>
+        <v>0.1011476292140344</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -904,19 +904,19 @@
         <v>4975</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1412</v>
+        <v>1492</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16675</v>
+        <v>18023</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03586319722182777</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01017795828998368</v>
+        <v>0.01075444568407673</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1202124490406201</v>
+        <v>0.1299369605429046</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -925,19 +925,19 @@
         <v>10312</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4471</v>
+        <v>4440</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23566</v>
+        <v>25436</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03519418195060656</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01526003190354783</v>
+        <v>0.01515475680479872</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08043231929292859</v>
+        <v>0.08681302500269349</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>13311</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6897</v>
+        <v>7152</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22014</v>
+        <v>23314</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08627126368039889</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04470530508854486</v>
+        <v>0.0463545622734293</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1426816096088241</v>
+        <v>0.1511096665269034</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -975,19 +975,19 @@
         <v>10979</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5745</v>
+        <v>5920</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19208</v>
+        <v>19291</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07915166091868443</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04141880553729376</v>
+        <v>0.04267770852087521</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1384803747495645</v>
+        <v>0.1390776939935763</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -996,19 +996,19 @@
         <v>24290</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16296</v>
+        <v>15375</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36057</v>
+        <v>34965</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08290073435302527</v>
+        <v>0.08290073435302528</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05561964094107688</v>
+        <v>0.05247461731448978</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1230620462380382</v>
+        <v>0.1193373318950241</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>65325</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>47988</v>
+        <v>48068</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>80991</v>
+        <v>82642</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2946146282456722</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2164251282057847</v>
+        <v>0.216785203249003</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3652651263812861</v>
+        <v>0.3727089667256506</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>111</v>
@@ -1121,19 +1121,19 @@
         <v>85779</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>72305</v>
+        <v>71664</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>99889</v>
+        <v>99444</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.33942731462114</v>
+        <v>0.3394273146211401</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2861123847278502</v>
+        <v>0.2835734901516669</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3952615803638059</v>
+        <v>0.3935025795482938</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>158</v>
@@ -1142,19 +1142,19 @@
         <v>151104</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>131473</v>
+        <v>130426</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>175122</v>
+        <v>174914</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.318484236721692</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2771078601108732</v>
+        <v>0.274901052021442</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3691065609123886</v>
+        <v>0.3686679307667518</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>140167</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>121037</v>
+        <v>121572</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>157928</v>
+        <v>157667</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6321440475066596</v>
+        <v>0.6321440475066595</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5458709879672762</v>
+        <v>0.5482844581369355</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7122453292334946</v>
+        <v>0.7110707224163852</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>196</v>
@@ -1192,19 +1192,19 @@
         <v>152822</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>138499</v>
+        <v>136844</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>166624</v>
+        <v>167232</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6047189116507075</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5480421981707747</v>
+        <v>0.5414924293944252</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6593315199547187</v>
+        <v>0.6617383716211904</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>297</v>
@@ -1213,19 +1213,19 @@
         <v>292989</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>267995</v>
+        <v>269095</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>314354</v>
+        <v>315231</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6175359686738406</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5648557445383298</v>
+        <v>0.5671749158662255</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6625679713194753</v>
+        <v>0.664415391987437</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>8152</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2691</v>
+        <v>2921</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20073</v>
+        <v>21019</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03676480637502211</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0121372312242116</v>
+        <v>0.01317415490174092</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09052773908188128</v>
+        <v>0.09479610114472865</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -1263,19 +1263,19 @@
         <v>8170</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4174</v>
+        <v>4514</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13846</v>
+        <v>13267</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03232734479520715</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01651497719478658</v>
+        <v>0.01786305337198944</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0547907100559144</v>
+        <v>0.0524983568186819</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -1284,19 +1284,19 @@
         <v>16322</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9907</v>
+        <v>9628</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>29686</v>
+        <v>30461</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.03440117948485762</v>
+        <v>0.03440117948485763</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02088168062090923</v>
+        <v>0.02029357179216406</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06256947977430317</v>
+        <v>0.06420334065441689</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>8088</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3345</v>
+        <v>3706</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16280</v>
+        <v>16670</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03647651787264597</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01508619374837736</v>
+        <v>0.01671519820052638</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07342315939162108</v>
+        <v>0.07517865417338621</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -1334,19 +1334,19 @@
         <v>5946</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2484</v>
+        <v>2492</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12956</v>
+        <v>14094</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02352642893294527</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.009828639749696963</v>
+        <v>0.009861038036285489</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.051265559335332</v>
+        <v>0.05577003784266252</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -1355,19 +1355,19 @@
         <v>14034</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8155</v>
+        <v>7410</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23778</v>
+        <v>22999</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02957861511960971</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01718813920242864</v>
+        <v>0.01561853223399157</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05011624394674071</v>
+        <v>0.04847534391429862</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>54986</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46036</v>
+        <v>46259</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>63148</v>
+        <v>63060</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.590907404399701</v>
+        <v>0.5909074043997011</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.494721490072019</v>
+        <v>0.4971244382743863</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6786173776236699</v>
+        <v>0.6776678330084085</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>109</v>
@@ -1480,19 +1480,19 @@
         <v>70904</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>61239</v>
+        <v>60935</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>80874</v>
+        <v>80386</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4845086170442746</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4184629892090752</v>
+        <v>0.41638758606211</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5526376487706383</v>
+        <v>0.549305334236766</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>176</v>
@@ -1501,19 +1501,19 @@
         <v>125890</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>111913</v>
+        <v>112443</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>138384</v>
+        <v>139119</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5258659706085317</v>
+        <v>0.5258659706085318</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4674808222218502</v>
+        <v>0.4696940814146318</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5780529520855876</v>
+        <v>0.5811232173937508</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>36483</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>28394</v>
+        <v>28861</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>45908</v>
+        <v>45603</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3920678182557316</v>
+        <v>0.3920678182557317</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3051306170620389</v>
+        <v>0.3101500330090151</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4933511877340361</v>
+        <v>0.4900661998822798</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>107</v>
@@ -1551,19 +1551,19 @@
         <v>70621</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>60285</v>
+        <v>61746</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>80105</v>
+        <v>80796</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4825782577289663</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4119461016755959</v>
+        <v>0.4219288532907249</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5473841974399474</v>
+        <v>0.552102652757581</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>151</v>
@@ -1572,19 +1572,19 @@
         <v>107105</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>94861</v>
+        <v>94249</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>120670</v>
+        <v>120250</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4473967266270524</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3962498071372302</v>
+        <v>0.3936952047822028</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.5040596231125456</v>
+        <v>0.5023057276750424</v>
       </c>
     </row>
     <row r="16">
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4800</v>
+        <v>6271</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01702477734456719</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05158351979722357</v>
+        <v>0.06738850301992919</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1669,19 +1669,19 @@
         <v>4817</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2079</v>
+        <v>2073</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9791</v>
+        <v>9010</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03291312522675916</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01420389103554134</v>
+        <v>0.01416780457722984</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0669049144325024</v>
+        <v>0.06156938601746535</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -1690,19 +1690,19 @@
         <v>6401</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3102</v>
+        <v>3162</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11404</v>
+        <v>12032</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02673730276441588</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01295719981698479</v>
+        <v>0.01320877407414159</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04763589851066531</v>
+        <v>0.05026097360833142</v>
       </c>
     </row>
     <row r="18">
@@ -1794,19 +1794,19 @@
         <v>53227</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>38353</v>
+        <v>39082</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>72875</v>
+        <v>71274</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.3050953140402722</v>
+        <v>0.3050953140402723</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2198365180937069</v>
+        <v>0.2240176534340592</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.417719607750214</v>
+        <v>0.4085412516837458</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>99</v>
@@ -1815,19 +1815,19 @@
         <v>65076</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>53402</v>
+        <v>53373</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79310</v>
+        <v>78947</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3229438879675371</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2650128850993901</v>
+        <v>0.2648688874741594</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3935809895923254</v>
+        <v>0.3917802931418113</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>141</v>
@@ -1836,19 +1836,19 @@
         <v>118303</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>97625</v>
+        <v>98345</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>140180</v>
+        <v>139601</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3146616373810543</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.259661735270051</v>
+        <v>0.2615789745950096</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3728514942605633</v>
+        <v>0.3713112051229899</v>
       </c>
     </row>
     <row r="20">
@@ -1865,19 +1865,19 @@
         <v>121233</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>101585</v>
+        <v>103186</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>136107</v>
+        <v>135378</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6949046859597278</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5822803922497858</v>
+        <v>0.5914587483162543</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7801634819062931</v>
+        <v>0.7759823465659409</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>176</v>
@@ -1886,19 +1886,19 @@
         <v>134709</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>120058</v>
+        <v>121129</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>146266</v>
+        <v>146549</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6685020457297375</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5957975923498668</v>
+        <v>0.6011121034618222</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7258549392228657</v>
+        <v>0.7272625864326632</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>265</v>
@@ -1907,19 +1907,19 @@
         <v>255942</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>233854</v>
+        <v>234345</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>275491</v>
+        <v>276099</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6807536285968423</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6220050442409719</v>
+        <v>0.6233101611540752</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7327506872629181</v>
+        <v>0.7343676785094957</v>
       </c>
     </row>
     <row r="21">
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2646</v>
+        <v>2485</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.002143661558693141</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01313067433376972</v>
+        <v>0.01233197657281327</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2783</v>
+        <v>2505</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.001148941068750465</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.00740248127551909</v>
+        <v>0.006661903346811416</v>
       </c>
     </row>
     <row r="22">
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4659</v>
+        <v>4665</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006410404744032219</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02312029431321448</v>
+        <v>0.02314869710891359</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4489</v>
+        <v>4637</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003435792953352918</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01193944011262067</v>
+        <v>0.01233318275371502</v>
       </c>
     </row>
     <row r="23">
@@ -2137,19 +2137,19 @@
         <v>57943</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>49879</v>
+        <v>49820</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>65394</v>
+        <v>65936</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6863559519024781</v>
+        <v>0.6863559519024779</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5908308063253849</v>
+        <v>0.5901366150427226</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7746147520718882</v>
+        <v>0.7810364310279075</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>81</v>
@@ -2158,19 +2158,19 @@
         <v>38258</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>30573</v>
+        <v>30562</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>44758</v>
+        <v>45156</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4819267251059026</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3851292169210292</v>
+        <v>0.3849908099610612</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5638108508420702</v>
+        <v>0.5688182442283668</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>153</v>
@@ -2179,19 +2179,19 @@
         <v>96201</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>85166</v>
+        <v>85879</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>106309</v>
+        <v>107057</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.5872833692194933</v>
+        <v>0.5872833692194934</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5199168720786755</v>
+        <v>0.5242744059308828</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6489944773626902</v>
+        <v>0.6535625309298347</v>
       </c>
     </row>
     <row r="25">
@@ -2208,19 +2208,19 @@
         <v>24589</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17157</v>
+        <v>17604</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>32269</v>
+        <v>32995</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2912697461200807</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2032280905318609</v>
+        <v>0.2085286360387455</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3822388532673704</v>
+        <v>0.3908406706074185</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>78</v>
@@ -2229,19 +2229,19 @@
         <v>37962</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>30992</v>
+        <v>31361</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>45223</v>
+        <v>45264</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4782009498115986</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3904061599837768</v>
+        <v>0.395054408972279</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5696677905697013</v>
+        <v>0.5701807783489916</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>112</v>
@@ -2250,19 +2250,19 @@
         <v>62551</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>52998</v>
+        <v>53005</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>73318</v>
+        <v>72779</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.381862257885468</v>
+        <v>0.3818622578854679</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3235428444110708</v>
+        <v>0.3235822547641399</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4475928836895935</v>
+        <v>0.4443015914729093</v>
       </c>
     </row>
     <row r="26">
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7326</v>
+        <v>7312</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02237430197744123</v>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08678164952359116</v>
+        <v>0.08661681603383239</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2300,19 +2300,19 @@
         <v>3165</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>778</v>
+        <v>801</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11490</v>
+        <v>11540</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.03987232508249872</v>
+        <v>0.03987232508249873</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.009795860331575004</v>
+        <v>0.01009415462885507</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.144733280682392</v>
+        <v>0.1453637608745457</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -2321,19 +2321,19 @@
         <v>5054</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1814</v>
+        <v>1639</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>13269</v>
+        <v>12576</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03085437289503875</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01107631186273231</v>
+        <v>0.01000504632280108</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08100293131951516</v>
+        <v>0.07677577903282194</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>46905</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>37330</v>
+        <v>38352</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>55978</v>
+        <v>57193</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.369782703352795</v>
+        <v>0.3697827033527949</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.29429141189359</v>
+        <v>0.3023547573883266</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4413103708891725</v>
+        <v>0.4508837823959466</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>72</v>
@@ -2493,19 +2493,19 @@
         <v>36196</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>28745</v>
+        <v>29067</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>43559</v>
+        <v>43941</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3183043194346213</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2527804937726811</v>
+        <v>0.2556125974982435</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3830490075024364</v>
+        <v>0.3864064026444055</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>146</v>
@@ -2514,19 +2514,19 @@
         <v>83102</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>69564</v>
+        <v>71196</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>95479</v>
+        <v>96134</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.345448381693735</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2891710017568428</v>
+        <v>0.2959589307693956</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3969012989659065</v>
+        <v>0.3996237274530926</v>
       </c>
     </row>
     <row r="30">
@@ -2543,19 +2543,19 @@
         <v>71750</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>61857</v>
+        <v>61638</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>81531</v>
+        <v>81547</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5656452620811842</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4876580291254913</v>
+        <v>0.4859255745751633</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6427536557659805</v>
+        <v>0.6428822659569309</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>118</v>
@@ -2564,19 +2564,19 @@
         <v>71877</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>64367</v>
+        <v>62977</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>79949</v>
+        <v>79557</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.6320782896988445</v>
+        <v>0.6320782896988444</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5660350873884304</v>
+        <v>0.553811346613776</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7030620431553071</v>
+        <v>0.6996101727692134</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>210</v>
@@ -2585,19 +2585,19 @@
         <v>143627</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>131150</v>
+        <v>129735</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>157673</v>
+        <v>156113</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5970487860419011</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.545182970740886</v>
+        <v>0.5392997015571591</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6554374315606621</v>
+        <v>0.6489494811114016</v>
       </c>
     </row>
     <row r="31">
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4745</v>
+        <v>3816</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.005917223664699035</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0374041629640189</v>
+        <v>0.03008053197150188</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -2638,16 +2638,16 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2614</v>
+        <v>2583</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.006823214050812238</v>
+        <v>0.006823214050812237</v>
       </c>
       <c r="O31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02298892417992483</v>
+        <v>0.02271391906401823</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3</v>
@@ -2656,19 +2656,19 @@
         <v>1526</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4963</v>
+        <v>4558</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.00634549393656185</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.00158517601867361</v>
+        <v>0.001560036165168654</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02063002994268768</v>
+        <v>0.01894837516487788</v>
       </c>
     </row>
     <row r="32">
@@ -2685,19 +2685,19 @@
         <v>7440</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3738</v>
+        <v>3779</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>12543</v>
+        <v>13348</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05865481090132188</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02946653532576719</v>
+        <v>0.02979369281368249</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09888104941473833</v>
+        <v>0.1052278778709306</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -2706,19 +2706,19 @@
         <v>4866</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1990</v>
+        <v>2193</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>10080</v>
+        <v>9817</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.04279417681572194</v>
+        <v>0.04279417681572193</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01750393961272676</v>
+        <v>0.01928491488776583</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08863948781356878</v>
+        <v>0.08632546922124766</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>18</v>
@@ -2727,19 +2727,19 @@
         <v>12307</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>7467</v>
+        <v>7523</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>18981</v>
+        <v>18942</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.05115733832780189</v>
+        <v>0.0511573383278019</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03104139999914373</v>
+        <v>0.03127398051075987</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07890257906280587</v>
+        <v>0.07874192429514203</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>107943</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>87601</v>
+        <v>86110</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>130501</v>
+        <v>127314</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3059550163017662</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2482969259659468</v>
+        <v>0.2440702581227246</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3698928038955972</v>
+        <v>0.3608610515917612</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>103</v>
@@ -2852,19 +2852,19 @@
         <v>84164</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>69482</v>
+        <v>69899</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>99322</v>
+        <v>102857</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2374121593945797</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1959984332378115</v>
+        <v>0.1971721364842505</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2801710369548812</v>
+        <v>0.2901428199516181</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>192</v>
@@ -2873,19 +2873,19 @@
         <v>192107</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>167030</v>
+        <v>167466</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>219124</v>
+        <v>217912</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.271601300521457</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2361475845574003</v>
+        <v>0.2367640473724086</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3097977910549092</v>
+        <v>0.3080852422989193</v>
       </c>
     </row>
     <row r="35">
@@ -2902,19 +2902,19 @@
         <v>243766</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>221752</v>
+        <v>224208</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>264376</v>
+        <v>264754</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.69093320793128</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.6285353458390359</v>
+        <v>0.6354971532596676</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.7493510205137188</v>
+        <v>0.7504217979675546</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>320</v>
@@ -2923,19 +2923,19 @@
         <v>261560</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>245812</v>
+        <v>242904</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>276348</v>
+        <v>276363</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.7378179288191353</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.6933947545944368</v>
+        <v>0.685192473133507</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.7795315333513834</v>
+        <v>0.7795753470480679</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>515</v>
@@ -2944,19 +2944,19 @@
         <v>505326</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>478758</v>
+        <v>480718</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>531128</v>
+        <v>531680</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.7144318545955342</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.6768690785956835</v>
+        <v>0.6796404404174855</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.7509103209973028</v>
+        <v>0.7516907692337548</v>
       </c>
     </row>
     <row r="36">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4760</v>
+        <v>4991</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.004069921215765516</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01342853274399077</v>
+        <v>0.01407751390266776</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5540</v>
+        <v>4908</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.002039846644909831</v>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.007833141466150712</v>
+        <v>0.00693827511709989</v>
       </c>
     </row>
     <row r="37">
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5620</v>
+        <v>5655</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.003111775766953901</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01593047825926892</v>
+        <v>0.01602937204375405</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>10</v>
@@ -3057,19 +3057,19 @@
         <v>7338</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3426</v>
+        <v>3484</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>12723</v>
+        <v>13082</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0206999905705194</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.009665268013219781</v>
+        <v>0.009828891948077886</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03589029472129689</v>
+        <v>0.03690141230932654</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>11</v>
@@ -3078,19 +3078,19 @@
         <v>8436</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4333</v>
+        <v>4421</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>15305</v>
+        <v>15929</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01192699823809904</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.006125327416758109</v>
+        <v>0.006249744053658575</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02163827248080539</v>
+        <v>0.02252012656579775</v>
       </c>
     </row>
     <row r="38">
@@ -3182,19 +3182,19 @@
         <v>240109</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>219219</v>
+        <v>221536</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>259965</v>
+        <v>258271</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.6657351228472577</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.6078155709340598</v>
+        <v>0.614240388692612</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.7207902804810538</v>
+        <v>0.7160923997868162</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>315</v>
@@ -3203,19 +3203,19 @@
         <v>252253</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>233426</v>
+        <v>234606</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>270035</v>
+        <v>268113</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.6186786304930872</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.5725017119671473</v>
+        <v>0.5753956688367523</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.6622911751453692</v>
+        <v>0.657577047580717</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>536</v>
@@ -3224,19 +3224,19 @@
         <v>492362</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>467051</v>
+        <v>465741</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>518929</v>
+        <v>518017</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.6407658460419567</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.607825657711392</v>
+        <v>0.6061213676213127</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.6753402850165587</v>
+        <v>0.6741532065501835</v>
       </c>
     </row>
     <row r="40">
@@ -3253,19 +3253,19 @@
         <v>118538</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>98854</v>
+        <v>100719</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>139927</v>
+        <v>137439</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3286626540218591</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2740854322952937</v>
+        <v>0.2792582460200221</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3879661446982861</v>
+        <v>0.3810678182358999</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>193</v>
@@ -3274,19 +3274,19 @@
         <v>149543</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>132286</v>
+        <v>133451</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>168438</v>
+        <v>167792</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.366771361201045</v>
+        <v>0.3667713612010451</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.3244464981754304</v>
+        <v>0.3273031693142354</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4131133151287751</v>
+        <v>0.4115292317567903</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>303</v>
@@ -3295,19 +3295,19 @@
         <v>268081</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>241160</v>
+        <v>241633</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>293753</v>
+        <v>293848</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3488840264753655</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3138488477129248</v>
+        <v>0.3144635186783046</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.382293130624594</v>
+        <v>0.3824169748381629</v>
       </c>
     </row>
     <row r="41">
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>3462</v>
+        <v>2829</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.001508521078092439</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.008489971317272681</v>
+        <v>0.006937827502740678</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1</v>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>3113</v>
+        <v>3093</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.000800456610365752</v>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.004050910597882438</v>
+        <v>0.004025209459617612</v>
       </c>
     </row>
     <row r="42">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7283</v>
+        <v>7183</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.005602223130883032</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.02019436509750085</v>
+        <v>0.01991671214011797</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>7</v>
@@ -3408,19 +3408,19 @@
         <v>5317</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2268</v>
+        <v>2180</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>10782</v>
+        <v>10202</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.01304148722777533</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.00556164995247341</v>
+        <v>0.005345998805016995</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.02644347431861069</v>
+        <v>0.02502238298486209</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>9</v>
@@ -3429,19 +3429,19 @@
         <v>7338</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3626</v>
+        <v>3305</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>13089</v>
+        <v>13848</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.009549670872312038</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.004719111764776871</v>
+        <v>0.004300707647378482</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.01703423562189271</v>
+        <v>0.01802253657343411</v>
       </c>
     </row>
     <row r="43">
@@ -3533,19 +3533,19 @@
         <v>675695</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>633401</v>
+        <v>631417</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>724627</v>
+        <v>719003</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4308528760788562</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4038843194404468</v>
+        <v>0.402618792845761</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4620539146140075</v>
+        <v>0.458467733741571</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>941</v>
@@ -3554,19 +3554,19 @@
         <v>659282</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>623397</v>
+        <v>622325</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>698527</v>
+        <v>691822</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.3890461235858537</v>
+        <v>0.3890461235858536</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3678702993686416</v>
+        <v>0.3672374696449187</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4122047429441658</v>
+        <v>0.4082484249624476</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1603</v>
@@ -3575,19 +3575,19 @@
         <v>1334977</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1282451</v>
+        <v>1275935</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1392804</v>
+        <v>1390314</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.409140129790833</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.393042073718016</v>
+        <v>0.3910449772231593</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4268628713353897</v>
+        <v>0.4260995796026884</v>
       </c>
     </row>
     <row r="45">
@@ -3604,19 +3604,19 @@
         <v>842909</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>794287</v>
+        <v>796792</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>886636</v>
+        <v>886187</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.5374754414421726</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.5064722963140155</v>
+        <v>0.5080696437638765</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5653577992583348</v>
+        <v>0.5650712553484308</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>1350</v>
@@ -3625,19 +3625,19 @@
         <v>975199</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>937654</v>
+        <v>943898</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>1010457</v>
+        <v>1014925</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.5754707454350823</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.553314955093938</v>
+        <v>0.5569995453793234</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.5962765181653179</v>
+        <v>0.5989130598284622</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>2102</v>
@@ -3646,19 +3646,19 @@
         <v>1818108</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>1760860</v>
+        <v>1761065</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>1874406</v>
+        <v>1877167</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.5572086746291426</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.5396634489093338</v>
+        <v>0.5397263126730812</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.5744627637649357</v>
+        <v>0.5753089712029006</v>
       </c>
     </row>
     <row r="46">
@@ -3675,19 +3675,19 @@
         <v>16129</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>8167</v>
+        <v>8285</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>30514</v>
+        <v>31648</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01028428504696819</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.005207571219003206</v>
+        <v>0.005282985530811943</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01945732675308133</v>
+        <v>0.02018014496755137</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>27</v>
@@ -3696,19 +3696,19 @@
         <v>19575</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>12335</v>
+        <v>12950</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>32268</v>
+        <v>31403</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01155144822233513</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.007278732520223042</v>
+        <v>0.007641948891996655</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01904136070603986</v>
+        <v>0.01853094985415471</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>39</v>
@@ -3717,19 +3717,19 @@
         <v>35704</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>23844</v>
+        <v>24170</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>52606</v>
+        <v>53010</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01094239865043149</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.00730772538854782</v>
+        <v>0.00740770778416193</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01612252200699312</v>
+        <v>0.01624646436220765</v>
       </c>
     </row>
     <row r="47">
@@ -3746,19 +3746,19 @@
         <v>33541</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>22911</v>
+        <v>23925</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>47986</v>
+        <v>47379</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02138739743200314</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01460916990036885</v>
+        <v>0.01525562204858178</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.03059811407277426</v>
+        <v>0.03021109082032805</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>56</v>
@@ -3767,19 +3767,19 @@
         <v>40555</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>30554</v>
+        <v>30516</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>53748</v>
+        <v>54238</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.02393168275672912</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.01802994238425104</v>
+        <v>0.01800778550526659</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.0317171778097487</v>
+        <v>0.03200643812850464</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>90</v>
@@ -3788,19 +3788,19 @@
         <v>74096</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>59943</v>
+        <v>58066</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>92723</v>
+        <v>92806</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.02270879692959297</v>
+        <v>0.02270879692959296</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.01837119975296615</v>
+        <v>0.01779602793129704</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.02841750501098507</v>
+        <v>0.02844298010347283</v>
       </c>
     </row>
     <row r="48">
